--- a/导表工具/G-公会战.xlsx
+++ b/导表工具/G-公会战.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\h10-d\trunk\表格导出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050" tabRatio="801"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="常量配置" sheetId="1" r:id="rId1"/>
@@ -37,7 +32,7 @@
     <definedName name="名字颜色">[1]参数设置!$B$43:$B$51</definedName>
     <definedName name="任务条件类型">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -47,14 +42,13 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A70" authorId="0" shapeId="0">
+    <comment ref="A70" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -63,7 +57,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,14 +75,13 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -98,7 +90,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -415,7 +406,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -425,7 +415,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>c</t>
@@ -614,7 +603,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>g</t>
@@ -624,7 +612,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>atherTime</t>
@@ -662,6 +649,9 @@
   </si>
   <si>
     <t>hefuOpen</t>
+  </si>
+  <si>
+    <t>{{day = 3,hours = 20,min = 30},{day = 5,hours = 20,min = 30},{day = 7,hours = 20,min = 30}}</t>
   </si>
   <si>
     <t>终结连杀开始次数</t>
@@ -761,7 +751,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{{type=0,id=4,count=500},{type=0,id=5,count=100},{type=0,id=1,count=300000}</t>
@@ -771,7 +760,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1020,7 +1008,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{2</t>
@@ -1030,7 +1017,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1054,7 +1040,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>{3</t>
@@ -1064,7 +1049,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1151,16 +1135,18 @@
   <si>
     <t xml:space="preserve">cd </t>
   </si>
-  <si>
-    <t>{{day = 3,hours = 20,min = 30},{day = 5,hours = 20,min = 30},{day = 7,hours = 20,min = 30}}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1172,7 +1158,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1181,7 +1166,6 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1190,14 +1174,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1205,7 +1187,6 @@
       <sz val="9"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1213,7 +1194,6 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1221,7 +1201,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1229,14 +1208,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1244,28 +1221,24 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="华文中宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1273,7 +1246,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1282,52 +1254,191 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1336,13 +1447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79946287423322249"/>
+        <fgColor theme="3" tint="0.799462874233222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,12 +1471,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7993408001953185"/>
+        <fgColor theme="3" tint="0.799340800195319"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1428,6 +1725,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1442,17 +1789,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
@@ -1534,19 +2058,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1577,10 +2101,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1596,26 +2120,70 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="我的公式" xfId="1"/>
-    <cellStyle name="我的选择" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="我的公式" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="我的选择" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="怪物属性计算表"/>
@@ -1964,19 +2532,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.5" style="34" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="34" customWidth="1"/>
@@ -1986,7 +2554,7 @@
     <col min="6" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2016,7 +2584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2027,7 +2595,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="40"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="41" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="34" t="s">
         <v>13</v>
       </c>
@@ -2055,7 +2623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
@@ -2069,7 +2637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="34" t="s">
         <v>20</v>
       </c>
@@ -2083,7 +2651,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="34" t="s">
         <v>22</v>
       </c>
@@ -2100,7 +2668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="34" t="s">
         <v>26</v>
       </c>
@@ -2117,7 +2685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="34" t="s">
         <v>30</v>
       </c>
@@ -2131,7 +2699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="34" t="s">
         <v>32</v>
       </c>
@@ -2145,7 +2713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="34" t="s">
         <v>34</v>
       </c>
@@ -2159,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="34" t="s">
         <v>36</v>
       </c>
@@ -2173,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="34" t="s">
         <v>38</v>
       </c>
@@ -2187,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="34" t="s">
         <v>40</v>
       </c>
@@ -2201,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="34" t="s">
         <v>42</v>
       </c>
@@ -2215,7 +2783,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="34" t="s">
         <v>44</v>
       </c>
@@ -2229,7 +2797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="34" t="s">
         <v>46</v>
       </c>
@@ -2243,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="34" t="s">
         <v>48</v>
       </c>
@@ -2257,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="34" t="s">
         <v>50</v>
       </c>
@@ -2271,7 +2839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="34" t="s">
         <v>52</v>
       </c>
@@ -2285,7 +2853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="34" t="s">
         <v>54</v>
       </c>
@@ -2299,7 +2867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="34" t="s">
         <v>57</v>
       </c>
@@ -2313,7 +2881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="34" t="s">
         <v>60</v>
       </c>
@@ -2327,7 +2895,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="34" t="s">
         <v>63</v>
       </c>
@@ -2341,7 +2909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="34" t="s">
         <v>66</v>
       </c>
@@ -2355,7 +2923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="34" t="s">
         <v>69</v>
       </c>
@@ -2369,7 +2937,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="34" t="s">
         <v>72</v>
       </c>
@@ -2383,7 +2951,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="34" t="s">
         <v>75</v>
       </c>
@@ -2397,7 +2965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="34" t="s">
         <v>78</v>
       </c>
@@ -2411,7 +2979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="34" t="s">
         <v>81</v>
       </c>
@@ -2425,7 +2993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="34" t="s">
         <v>84</v>
       </c>
@@ -2439,7 +3007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="34" t="s">
         <v>86</v>
       </c>
@@ -2453,7 +3021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="34" t="s">
         <v>88</v>
       </c>
@@ -2467,7 +3035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="34" t="s">
         <v>90</v>
       </c>
@@ -2481,7 +3049,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="34" t="s">
         <v>92</v>
       </c>
@@ -2495,7 +3063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="34" t="s">
         <v>94</v>
       </c>
@@ -2509,7 +3077,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="34" t="s">
         <v>97</v>
       </c>
@@ -2523,7 +3091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="34" t="s">
         <v>101</v>
       </c>
@@ -2537,7 +3105,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="34" t="s">
         <v>104</v>
       </c>
@@ -2551,7 +3119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="34" t="s">
         <v>107</v>
       </c>
@@ -2565,7 +3133,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="34" t="s">
         <v>110</v>
       </c>
@@ -2579,7 +3147,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" customHeight="1" spans="1:4">
       <c r="A44" s="34" t="s">
         <v>113</v>
       </c>
@@ -2593,7 +3161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" customHeight="1" spans="1:4">
       <c r="A45" s="34" t="s">
         <v>115</v>
       </c>
@@ -2607,7 +3175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" customHeight="1" spans="1:4">
       <c r="A46" s="34" t="s">
         <v>117</v>
       </c>
@@ -2621,7 +3189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" customHeight="1" spans="1:4">
       <c r="A47" s="34" t="s">
         <v>119</v>
       </c>
@@ -2635,7 +3203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" customHeight="1" spans="1:4">
       <c r="A48" s="34" t="s">
         <v>121</v>
       </c>
@@ -2649,7 +3217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" customHeight="1" spans="1:4">
       <c r="A49" s="34" t="s">
         <v>123</v>
       </c>
@@ -2663,7 +3231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" customHeight="1" spans="1:3">
       <c r="A50" s="34" t="s">
         <v>125</v>
       </c>
@@ -2674,7 +3242,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" customHeight="1" spans="1:4">
       <c r="A51" s="34" t="s">
         <v>127</v>
       </c>
@@ -2688,7 +3256,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" customHeight="1" spans="1:4">
       <c r="A52" s="34" t="s">
         <v>130</v>
       </c>
@@ -2702,7 +3270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" customHeight="1" spans="1:4">
       <c r="A53" s="34" t="s">
         <v>132</v>
       </c>
@@ -2716,7 +3284,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" customHeight="1" spans="1:4">
       <c r="A54" s="34" t="s">
         <v>135</v>
       </c>
@@ -2730,7 +3298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" customHeight="1" spans="1:4">
       <c r="A55" s="34" t="s">
         <v>138</v>
       </c>
@@ -2744,7 +3312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" customHeight="1" spans="1:4">
       <c r="A56" s="34" t="s">
         <v>140</v>
       </c>
@@ -2758,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" customHeight="1" spans="1:4">
       <c r="A57" s="34" t="s">
         <v>142</v>
       </c>
@@ -2772,7 +3340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" customHeight="1" spans="1:3">
       <c r="A58" s="42" t="s">
         <v>145</v>
       </c>
@@ -2783,7 +3351,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" customHeight="1" spans="1:4">
       <c r="A59" s="34" t="s">
         <v>147</v>
       </c>
@@ -2797,7 +3365,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" customHeight="1" spans="1:4">
       <c r="A60" s="34" t="s">
         <v>150</v>
       </c>
@@ -2811,7 +3379,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" customHeight="1" spans="1:4">
       <c r="A61" s="34" t="s">
         <v>153</v>
       </c>
@@ -2825,7 +3393,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" customHeight="1" spans="1:4">
       <c r="A62" s="42" t="s">
         <v>155</v>
       </c>
@@ -2839,7 +3407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" customHeight="1" spans="1:4">
       <c r="A63" s="42" t="s">
         <v>157</v>
       </c>
@@ -2853,7 +3421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" customHeight="1" spans="1:4">
       <c r="A64" s="42" t="s">
         <v>159</v>
       </c>
@@ -2867,7 +3435,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" customHeight="1" spans="1:4">
       <c r="A65" s="42" t="s">
         <v>162</v>
       </c>
@@ -2881,7 +3449,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" customHeight="1" spans="1:4">
       <c r="A66" s="42" t="s">
         <v>165</v>
       </c>
@@ -2895,7 +3463,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" customHeight="1" spans="1:4">
       <c r="A67" s="42" t="s">
         <v>168</v>
       </c>
@@ -2906,134 +3474,136 @@
         <v>169</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:4">
       <c r="A68" s="42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D68" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" customHeight="1" spans="1:4">
       <c r="A69" s="42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D69" s="34">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" ht="138" customHeight="1" spans="1:4">
       <c r="A70" s="34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B70" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="330" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" ht="201" customHeight="1" spans="1:4">
       <c r="A71" s="48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" s="42" t="s">
         <v>143</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="3" width="56.125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3044,27 +3614,27 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -3077,98 +3647,99 @@
       <c r="D6" s="21"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15">
         <v>8</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="34.125" customWidth="1"/>
@@ -3178,37 +3749,37 @@
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3219,37 +3790,37 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -3272,30 +3843,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="28">
         <v>1</v>
       </c>
@@ -3303,17 +3874,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E8" s="29">
         <v>5</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7">
       <c r="B9" s="28">
         <v>1</v>
       </c>
@@ -3321,17 +3892,17 @@
         <v>2</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E9" s="29">
         <v>7</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7">
       <c r="B10" s="28">
         <v>1</v>
       </c>
@@ -3339,17 +3910,17 @@
         <v>3</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E10" s="29">
         <v>9</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7">
       <c r="B11" s="31">
         <v>1</v>
       </c>
@@ -3357,19 +3928,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E11" s="32">
         <v>3</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G11" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7">
       <c r="B12" s="28">
         <v>2</v>
       </c>
@@ -3377,17 +3948,17 @@
         <v>1</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E12" s="29">
         <v>3</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7">
       <c r="B13" s="28">
         <v>2</v>
       </c>
@@ -3395,17 +3966,17 @@
         <v>2</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" s="29">
         <v>6</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7">
       <c r="B14" s="28">
         <v>2</v>
       </c>
@@ -3413,17 +3984,17 @@
         <v>3</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E14" s="29">
         <v>8</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7">
       <c r="B15" s="28">
         <v>3</v>
       </c>
@@ -3431,17 +4002,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E15" s="29">
         <v>2</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7">
       <c r="B16" s="28">
         <v>3</v>
       </c>
@@ -3449,17 +4020,17 @@
         <v>2</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E16" s="29">
         <v>5</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7">
       <c r="B17" s="28">
         <v>3</v>
       </c>
@@ -3467,17 +4038,17 @@
         <v>3</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E17" s="29">
         <v>7</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7">
       <c r="B18" s="28">
         <v>4</v>
       </c>
@@ -3485,17 +4056,17 @@
         <v>1</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E18" s="29">
         <v>4</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7">
       <c r="B19" s="28">
         <v>4</v>
       </c>
@@ -3503,17 +4074,17 @@
         <v>2</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E19" s="29">
         <v>6</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7">
       <c r="B20" s="28">
         <v>5</v>
       </c>
@@ -3521,17 +4092,17 @@
         <v>1</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E20" s="29">
         <v>3</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7">
       <c r="B21" s="28">
         <v>5</v>
       </c>
@@ -3539,17 +4110,17 @@
         <v>2</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E21" s="29">
         <v>5</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G21" s="29"/>
     </row>
-    <row r="28" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7">
       <c r="B28" s="31">
         <v>1</v>
       </c>
@@ -3557,19 +4128,19 @@
         <v>4</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E28" s="32">
         <v>6</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G28" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7">
       <c r="B29" s="31">
         <v>1</v>
       </c>
@@ -3577,35 +4148,36 @@
         <v>5</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E29" s="32">
         <v>3</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29" s="32">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
@@ -3614,37 +4186,37 @@
     <col min="5" max="5" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3655,29 +4227,29 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -3692,22 +4264,22 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4">
       <c r="B8" s="28">
         <v>1</v>
       </c>
@@ -3715,10 +4287,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="28">
         <v>2</v>
       </c>
@@ -3726,10 +4298,10 @@
         <v>100</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="28">
         <v>3</v>
       </c>
@@ -3737,10 +4309,10 @@
         <v>200</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="28">
         <v>4</v>
       </c>
@@ -3748,10 +4320,10 @@
         <v>300</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="28">
         <v>5</v>
       </c>
@@ -3759,24 +4331,25 @@
         <v>500</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="31.625" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
@@ -3785,37 +4358,37 @@
     <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3826,27 +4399,27 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -3859,114 +4432,115 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15">
         <v>8</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30.75" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
@@ -3982,37 +4556,37 @@
     <col min="14" max="14" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4023,58 +4597,58 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -4118,65 +4692,65 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D8">
         <v>28001</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -4197,27 +4771,27 @@
         <v>0</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D9">
         <v>28002</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4238,27 +4812,27 @@
         <v>0</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D10">
         <v>28003</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4279,27 +4853,27 @@
         <v>5</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D11">
         <v>28004</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -4320,28 +4894,29 @@
         <v>5</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
@@ -4350,37 +4925,37 @@
     <col min="5" max="5" width="68.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4391,29 +4966,29 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -4428,24 +5003,24 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4457,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>2</v>
       </c>
@@ -4468,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>3</v>
       </c>
@@ -4479,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>4</v>
       </c>
@@ -4490,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>5</v>
       </c>
@@ -4501,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4">
       <c r="B13">
         <v>6</v>
       </c>
@@ -4512,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>7</v>
       </c>
@@ -4523,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4">
       <c r="B15">
         <v>8</v>
       </c>
@@ -4534,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4">
       <c r="B16">
         <v>9</v>
       </c>
@@ -4545,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>10</v>
       </c>
@@ -4556,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>11</v>
       </c>
@@ -4567,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>12</v>
       </c>
@@ -4578,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>13</v>
       </c>
@@ -4589,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4">
       <c r="B21">
         <v>14</v>
       </c>
@@ -4600,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4">
       <c r="B22">
         <v>15</v>
       </c>
@@ -4611,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4">
       <c r="B23">
         <v>16</v>
       </c>
@@ -4622,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4">
       <c r="B24">
         <v>17</v>
       </c>
@@ -4633,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4">
       <c r="B25">
         <v>18</v>
       </c>
@@ -4644,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4">
       <c r="B26">
         <v>19</v>
       </c>
@@ -4655,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4">
       <c r="B27">
         <v>20</v>
       </c>
@@ -4666,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4">
       <c r="B28">
         <v>21</v>
       </c>
@@ -4677,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4">
       <c r="B29">
         <v>22</v>
       </c>
@@ -4688,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4">
       <c r="B30">
         <v>23</v>
       </c>
@@ -4699,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4">
       <c r="B31">
         <v>24</v>
       </c>
@@ -4710,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4">
       <c r="B32">
         <v>25</v>
       </c>
@@ -4721,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4">
       <c r="B33">
         <v>26</v>
       </c>
@@ -4732,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4">
       <c r="B34">
         <v>27</v>
       </c>
@@ -4743,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4">
       <c r="B35">
         <v>28</v>
       </c>
@@ -4754,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4">
       <c r="B36">
         <v>29</v>
       </c>
@@ -4765,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4">
       <c r="B37">
         <v>30</v>
       </c>
@@ -4776,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4">
       <c r="B38">
         <v>31</v>
       </c>
@@ -4787,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4">
       <c r="B39">
         <v>32</v>
       </c>
@@ -4798,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4">
       <c r="B40">
         <v>33</v>
       </c>
@@ -4809,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4">
       <c r="B41">
         <v>34</v>
       </c>
@@ -4820,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4">
       <c r="B42">
         <v>35</v>
       </c>
@@ -4831,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4">
       <c r="B43">
         <v>36</v>
       </c>
@@ -4842,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4">
       <c r="B44">
         <v>37</v>
       </c>
@@ -4853,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4">
       <c r="B45">
         <v>38</v>
       </c>
@@ -4864,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4">
       <c r="B46">
         <v>39</v>
       </c>
@@ -4875,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4">
       <c r="B47">
         <v>40</v>
       </c>
@@ -4886,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4">
       <c r="B48">
         <v>41</v>
       </c>
@@ -4897,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4">
       <c r="B49">
         <v>42</v>
       </c>
@@ -4908,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4">
       <c r="B50">
         <v>43</v>
       </c>
@@ -4919,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4">
       <c r="B51">
         <v>44</v>
       </c>
@@ -4930,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4">
       <c r="B52">
         <v>45</v>
       </c>
@@ -4941,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4">
       <c r="B53">
         <v>46</v>
       </c>
@@ -4952,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4">
       <c r="B54">
         <v>47</v>
       </c>
@@ -4963,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4">
       <c r="B55">
         <v>48</v>
       </c>
@@ -4974,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4">
       <c r="B56">
         <v>49</v>
       </c>
@@ -4985,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4">
       <c r="B57">
         <v>50</v>
       </c>
@@ -4996,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4">
       <c r="B58">
         <v>51</v>
       </c>
@@ -5007,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4">
       <c r="B59">
         <v>52</v>
       </c>
@@ -5018,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4">
       <c r="B60">
         <v>53</v>
       </c>
@@ -5029,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4">
       <c r="B61">
         <v>54</v>
       </c>
@@ -5040,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4">
       <c r="B62">
         <v>55</v>
       </c>
@@ -5051,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4">
       <c r="B63">
         <v>56</v>
       </c>
@@ -5062,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4">
       <c r="B64">
         <v>57</v>
       </c>
@@ -5073,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4">
       <c r="B65">
         <v>58</v>
       </c>
@@ -5084,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4">
       <c r="B66">
         <v>59</v>
       </c>
@@ -5095,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4">
       <c r="B67">
         <v>60</v>
       </c>
@@ -5106,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4">
       <c r="B68">
         <v>61</v>
       </c>
@@ -5117,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:4">
       <c r="B69">
         <v>62</v>
       </c>
@@ -5128,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:4">
       <c r="B70">
         <v>63</v>
       </c>
@@ -5139,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:4">
       <c r="B71">
         <v>64</v>
       </c>
@@ -5150,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:4">
       <c r="B72">
         <v>65</v>
       </c>
@@ -5161,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4">
       <c r="B73">
         <v>66</v>
       </c>
@@ -5172,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4">
       <c r="B74">
         <v>67</v>
       </c>
@@ -5183,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:4">
       <c r="B75">
         <v>68</v>
       </c>
@@ -5194,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:4">
       <c r="B76">
         <v>69</v>
       </c>
@@ -5205,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:4">
       <c r="B77">
         <v>70</v>
       </c>
@@ -5216,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:4">
       <c r="B78">
         <v>71</v>
       </c>
@@ -5227,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:4">
       <c r="B79">
         <v>72</v>
       </c>
@@ -5238,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:4">
       <c r="B80">
         <v>73</v>
       </c>
@@ -5249,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:4">
       <c r="B81">
         <v>74</v>
       </c>
@@ -5260,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4">
       <c r="B82">
         <v>75</v>
       </c>
@@ -5271,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4">
       <c r="B83">
         <v>76</v>
       </c>
@@ -5282,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4">
       <c r="B84">
         <v>77</v>
       </c>
@@ -5293,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4">
       <c r="B85">
         <v>78</v>
       </c>
@@ -5304,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:4">
       <c r="B86">
         <v>79</v>
       </c>
@@ -5315,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4">
       <c r="B87">
         <v>80</v>
       </c>
@@ -5326,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:4">
       <c r="B88">
         <v>81</v>
       </c>
@@ -5337,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:4">
       <c r="B89">
         <v>82</v>
       </c>
@@ -5348,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:4">
       <c r="B90">
         <v>83</v>
       </c>
@@ -5359,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:4">
       <c r="B91">
         <v>84</v>
       </c>
@@ -5370,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:4">
       <c r="B92">
         <v>85</v>
       </c>
@@ -5381,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:4">
       <c r="B93">
         <v>86</v>
       </c>
@@ -5392,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:4">
       <c r="B94">
         <v>87</v>
       </c>
@@ -5403,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4">
       <c r="B95">
         <v>88</v>
       </c>
@@ -5414,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:4">
       <c r="B96">
         <v>89</v>
       </c>
@@ -5425,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4">
       <c r="B97">
         <v>90</v>
       </c>
@@ -5436,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:4">
       <c r="B98">
         <v>91</v>
       </c>
@@ -5447,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4">
       <c r="B99">
         <v>92</v>
       </c>
@@ -5458,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4">
       <c r="B100">
         <v>93</v>
       </c>
@@ -5469,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:4">
       <c r="B101">
         <v>94</v>
       </c>
@@ -5480,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:4">
       <c r="B102">
         <v>95</v>
       </c>
@@ -5491,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4">
       <c r="B103">
         <v>96</v>
       </c>
@@ -5502,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:4">
       <c r="B104">
         <v>97</v>
       </c>
@@ -5513,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:4">
       <c r="B105">
         <v>98</v>
       </c>
@@ -5524,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4">
       <c r="B106">
         <v>99</v>
       </c>
@@ -5535,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4">
       <c r="B107">
         <v>100</v>
       </c>
@@ -5546,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4">
       <c r="B108">
         <v>101</v>
       </c>
@@ -5557,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4">
       <c r="B109">
         <v>102</v>
       </c>
@@ -5568,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:4">
       <c r="B110">
         <v>103</v>
       </c>
@@ -5579,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:4">
       <c r="B111">
         <v>104</v>
       </c>
@@ -5590,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:4">
       <c r="B112">
         <v>105</v>
       </c>
@@ -5601,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4">
       <c r="B113">
         <v>106</v>
       </c>
@@ -5612,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4">
       <c r="B114">
         <v>107</v>
       </c>
@@ -5623,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4">
       <c r="B115">
         <v>108</v>
       </c>
@@ -5634,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4">
       <c r="B116">
         <v>109</v>
       </c>
@@ -5645,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:4">
       <c r="B117">
         <v>110</v>
       </c>
@@ -5656,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:4">
       <c r="B118">
         <v>111</v>
       </c>
@@ -5667,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:4">
       <c r="B119">
         <v>112</v>
       </c>
@@ -5678,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:4">
       <c r="B120">
         <v>113</v>
       </c>
@@ -5689,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:4">
       <c r="B121">
         <v>114</v>
       </c>
@@ -5700,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:4">
       <c r="B122">
         <v>115</v>
       </c>
@@ -5711,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:4">
       <c r="B123">
         <v>116</v>
       </c>
@@ -5722,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:4">
       <c r="B124">
         <v>117</v>
       </c>
@@ -5733,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:4">
       <c r="B125">
         <v>118</v>
       </c>
@@ -5744,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:4">
       <c r="B126">
         <v>119</v>
       </c>
@@ -5755,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:4">
       <c r="B127">
         <v>120</v>
       </c>
@@ -5766,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:4">
       <c r="B128">
         <v>121</v>
       </c>
@@ -5777,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:4">
       <c r="B129">
         <v>122</v>
       </c>
@@ -5788,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:4">
       <c r="B130">
         <v>123</v>
       </c>
@@ -5799,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:4">
       <c r="B131">
         <v>124</v>
       </c>
@@ -5810,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:4">
       <c r="B132">
         <v>125</v>
       </c>
@@ -5821,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:4">
       <c r="B133">
         <v>126</v>
       </c>
@@ -5832,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:4">
       <c r="B134">
         <v>127</v>
       </c>
@@ -5843,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:4">
       <c r="B135">
         <v>128</v>
       </c>
@@ -5854,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:4">
       <c r="B136">
         <v>129</v>
       </c>
@@ -5865,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:4">
       <c r="B137">
         <v>130</v>
       </c>
@@ -5876,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4">
       <c r="B138">
         <v>131</v>
       </c>
@@ -5887,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4">
       <c r="B139">
         <v>132</v>
       </c>
@@ -5898,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:4">
       <c r="B140">
         <v>133</v>
       </c>
@@ -5909,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:4">
       <c r="B141">
         <v>134</v>
       </c>
@@ -5920,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:4">
       <c r="B142">
         <v>135</v>
       </c>
@@ -5931,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:4">
       <c r="B143">
         <v>136</v>
       </c>
@@ -5942,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:4">
       <c r="B144">
         <v>137</v>
       </c>
@@ -5953,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4">
       <c r="B145">
         <v>138</v>
       </c>
@@ -5964,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:4">
       <c r="B146">
         <v>139</v>
       </c>
@@ -5975,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:4">
       <c r="B147">
         <v>140</v>
       </c>
@@ -5986,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:4">
       <c r="B148">
         <v>141</v>
       </c>
@@ -5997,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:4">
       <c r="B149">
         <v>142</v>
       </c>
@@ -6008,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:4">
       <c r="B150">
         <v>143</v>
       </c>
@@ -6019,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:4">
       <c r="B151">
         <v>144</v>
       </c>
@@ -6030,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:4">
       <c r="B152">
         <v>145</v>
       </c>
@@ -6041,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:4">
       <c r="B153">
         <v>146</v>
       </c>
@@ -6052,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:4">
       <c r="B154">
         <v>147</v>
       </c>
@@ -6063,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:4">
       <c r="B155">
         <v>148</v>
       </c>
@@ -6074,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:4">
       <c r="B156">
         <v>149</v>
       </c>
@@ -6085,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:4">
       <c r="B157">
         <v>150</v>
       </c>
@@ -6096,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:4">
       <c r="B158">
         <v>151</v>
       </c>
@@ -6107,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:4">
       <c r="B159">
         <v>152</v>
       </c>
@@ -6118,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:4">
       <c r="B160">
         <v>153</v>
       </c>
@@ -6129,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:4">
       <c r="B161">
         <v>154</v>
       </c>
@@ -6140,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:4">
       <c r="B162">
         <v>155</v>
       </c>
@@ -6151,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:4">
       <c r="B163">
         <v>156</v>
       </c>
@@ -6162,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:4">
       <c r="B164">
         <v>157</v>
       </c>
@@ -6173,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:4">
       <c r="B165">
         <v>158</v>
       </c>
@@ -6184,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:4">
       <c r="B166">
         <v>159</v>
       </c>
@@ -6195,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:4">
       <c r="B167">
         <v>160</v>
       </c>
@@ -6206,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:4">
       <c r="B168">
         <v>161</v>
       </c>
@@ -6217,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:4">
       <c r="B169">
         <v>162</v>
       </c>
@@ -6228,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:4">
       <c r="B170">
         <v>163</v>
       </c>
@@ -6239,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:4">
       <c r="B171">
         <v>164</v>
       </c>
@@ -6250,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:4">
       <c r="B172">
         <v>165</v>
       </c>
@@ -6261,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:4">
       <c r="B173">
         <v>166</v>
       </c>
@@ -6272,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:4">
       <c r="B174">
         <v>167</v>
       </c>
@@ -6283,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:4">
       <c r="B175">
         <v>168</v>
       </c>
@@ -6294,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:4">
       <c r="B176">
         <v>169</v>
       </c>
@@ -6305,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:4">
       <c r="B177">
         <v>170</v>
       </c>
@@ -6316,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:4">
       <c r="B178">
         <v>171</v>
       </c>
@@ -6327,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:4">
       <c r="B179">
         <v>172</v>
       </c>
@@ -6338,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:4">
       <c r="B180">
         <v>173</v>
       </c>
@@ -6349,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:4">
       <c r="B181">
         <v>174</v>
       </c>
@@ -6360,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:4">
       <c r="B182">
         <v>175</v>
       </c>
@@ -6371,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:4">
       <c r="B183">
         <v>176</v>
       </c>
@@ -6382,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:4">
       <c r="B184">
         <v>177</v>
       </c>
@@ -6393,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:4">
       <c r="B185">
         <v>178</v>
       </c>
@@ -6404,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:4">
       <c r="B186">
         <v>179</v>
       </c>
@@ -6415,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:4">
       <c r="B187">
         <v>180</v>
       </c>
@@ -6426,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:4">
       <c r="B188">
         <v>181</v>
       </c>
@@ -6437,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:4">
       <c r="B189">
         <v>182</v>
       </c>
@@ -6448,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:4">
       <c r="B190">
         <v>183</v>
       </c>
@@ -6459,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:4">
       <c r="B191">
         <v>184</v>
       </c>
@@ -6470,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:4">
       <c r="B192">
         <v>185</v>
       </c>
@@ -6481,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:4">
       <c r="B193">
         <v>186</v>
       </c>
@@ -6492,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:4">
       <c r="B194">
         <v>187</v>
       </c>
@@ -6503,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:4">
       <c r="B195">
         <v>188</v>
       </c>
@@ -6514,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:4">
       <c r="B196">
         <v>189</v>
       </c>
@@ -6525,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:4">
       <c r="B197">
         <v>190</v>
       </c>
@@ -6536,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:4">
       <c r="B198">
         <v>191</v>
       </c>
@@ -6547,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:4">
       <c r="B199">
         <v>192</v>
       </c>
@@ -6558,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:4">
       <c r="B200">
         <v>193</v>
       </c>
@@ -6569,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:4">
       <c r="B201">
         <v>194</v>
       </c>
@@ -6580,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:4">
       <c r="B202">
         <v>195</v>
       </c>
@@ -6591,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:4">
       <c r="B203">
         <v>196</v>
       </c>
@@ -6602,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:4">
       <c r="B204">
         <v>197</v>
       </c>
@@ -6613,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:4">
       <c r="B205">
         <v>198</v>
       </c>
@@ -6624,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:4">
       <c r="B206">
         <v>199</v>
       </c>
@@ -6635,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:4">
       <c r="B207">
         <v>200</v>
       </c>
@@ -6646,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:4">
       <c r="B208">
         <v>201</v>
       </c>
@@ -6657,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:4">
       <c r="B209">
         <v>202</v>
       </c>
@@ -6668,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:4">
       <c r="B210">
         <v>203</v>
       </c>
@@ -6679,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:4">
       <c r="B211">
         <v>204</v>
       </c>
@@ -6690,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:4">
       <c r="B212">
         <v>205</v>
       </c>
@@ -6701,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:4">
       <c r="B213">
         <v>206</v>
       </c>
@@ -6712,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:4">
       <c r="B214">
         <v>207</v>
       </c>
@@ -6723,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:4">
       <c r="B215">
         <v>208</v>
       </c>
@@ -6734,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:4">
       <c r="B216">
         <v>209</v>
       </c>
@@ -6745,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:4">
       <c r="B217">
         <v>210</v>
       </c>
@@ -6756,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:4">
       <c r="B218">
         <v>211</v>
       </c>
@@ -6767,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:4">
       <c r="B219">
         <v>212</v>
       </c>
@@ -6778,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:4">
       <c r="B220">
         <v>213</v>
       </c>
@@ -6789,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:4">
       <c r="B221">
         <v>214</v>
       </c>
@@ -6800,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:4">
       <c r="B222">
         <v>215</v>
       </c>
@@ -6811,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:4">
       <c r="B223">
         <v>216</v>
       </c>
@@ -6822,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:4">
       <c r="B224">
         <v>217</v>
       </c>
@@ -6833,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:4">
       <c r="B225">
         <v>218</v>
       </c>
@@ -6844,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:4">
       <c r="B226">
         <v>219</v>
       </c>
@@ -6855,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:4">
       <c r="B227">
         <v>220</v>
       </c>
@@ -6866,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:4">
       <c r="B228">
         <v>221</v>
       </c>
@@ -6877,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:4">
       <c r="B229">
         <v>222</v>
       </c>
@@ -6888,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:4">
       <c r="B230">
         <v>223</v>
       </c>
@@ -6899,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:4">
       <c r="B231">
         <v>224</v>
       </c>
@@ -6910,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:4">
       <c r="B232">
         <v>225</v>
       </c>
@@ -6921,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:4">
       <c r="B233">
         <v>226</v>
       </c>
@@ -6932,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:4">
       <c r="B234">
         <v>227</v>
       </c>
@@ -6943,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:4">
       <c r="B235">
         <v>228</v>
       </c>
@@ -6954,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:4">
       <c r="B236">
         <v>229</v>
       </c>
@@ -6965,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:4">
       <c r="B237">
         <v>230</v>
       </c>
@@ -6976,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:4">
       <c r="B238">
         <v>231</v>
       </c>
@@ -6987,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:4">
       <c r="B239">
         <v>232</v>
       </c>
@@ -6998,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:4">
       <c r="B240">
         <v>233</v>
       </c>
@@ -7009,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:4">
       <c r="B241">
         <v>234</v>
       </c>
@@ -7020,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:4">
       <c r="B242">
         <v>235</v>
       </c>
@@ -7031,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:4">
       <c r="B243">
         <v>236</v>
       </c>
@@ -7042,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:4">
       <c r="B244">
         <v>237</v>
       </c>
@@ -7053,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:4">
       <c r="B245">
         <v>238</v>
       </c>
@@ -7064,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:4">
       <c r="B246">
         <v>239</v>
       </c>
@@ -7075,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:4">
       <c r="B247">
         <v>240</v>
       </c>
@@ -7086,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:4">
       <c r="B248">
         <v>241</v>
       </c>
@@ -7097,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:4">
       <c r="B249">
         <v>242</v>
       </c>
@@ -7108,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:4">
       <c r="B250">
         <v>243</v>
       </c>
@@ -7119,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:4">
       <c r="B251">
         <v>244</v>
       </c>
@@ -7130,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:4">
       <c r="B252">
         <v>245</v>
       </c>
@@ -7141,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:4">
       <c r="B253">
         <v>246</v>
       </c>
@@ -7152,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:4">
       <c r="B254">
         <v>247</v>
       </c>
@@ -7163,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:4">
       <c r="B255">
         <v>248</v>
       </c>
@@ -7174,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:4">
       <c r="B256">
         <v>249</v>
       </c>
@@ -7185,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:4">
       <c r="B257">
         <v>250</v>
       </c>
@@ -7196,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:4">
       <c r="B258">
         <v>251</v>
       </c>
@@ -7207,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:4">
       <c r="B259">
         <v>252</v>
       </c>
@@ -7218,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:4">
       <c r="B260">
         <v>253</v>
       </c>
@@ -7229,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:4">
       <c r="B261">
         <v>254</v>
       </c>
@@ -7240,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:4">
       <c r="B262">
         <v>255</v>
       </c>
@@ -7251,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:4">
       <c r="B263">
         <v>256</v>
       </c>
@@ -7262,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:4">
       <c r="B264">
         <v>257</v>
       </c>
@@ -7273,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:4">
       <c r="B265">
         <v>258</v>
       </c>
@@ -7284,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:4">
       <c r="B266">
         <v>259</v>
       </c>
@@ -7295,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:4">
       <c r="B267">
         <v>260</v>
       </c>
@@ -7306,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:4">
       <c r="B268">
         <v>261</v>
       </c>
@@ -7317,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:4">
       <c r="B269">
         <v>262</v>
       </c>
@@ -7328,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:4">
       <c r="B270">
         <v>263</v>
       </c>
@@ -7339,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:4">
       <c r="B271">
         <v>264</v>
       </c>
@@ -7350,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:4">
       <c r="B272">
         <v>265</v>
       </c>
@@ -7361,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:4">
       <c r="B273">
         <v>266</v>
       </c>
@@ -7372,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:4">
       <c r="B274">
         <v>267</v>
       </c>
@@ -7383,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:4">
       <c r="B275">
         <v>268</v>
       </c>
@@ -7394,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:4">
       <c r="B276">
         <v>269</v>
       </c>
@@ -7405,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:4">
       <c r="B277">
         <v>270</v>
       </c>
@@ -7416,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:4">
       <c r="B278">
         <v>271</v>
       </c>
@@ -7427,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:4">
       <c r="B279">
         <v>272</v>
       </c>
@@ -7438,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:4">
       <c r="B280">
         <v>273</v>
       </c>
@@ -7449,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:4">
       <c r="B281">
         <v>274</v>
       </c>
@@ -7460,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:4">
       <c r="B282">
         <v>275</v>
       </c>
@@ -7471,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:4">
       <c r="B283">
         <v>276</v>
       </c>
@@ -7482,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:4">
       <c r="B284">
         <v>277</v>
       </c>
@@ -7493,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:4">
       <c r="B285">
         <v>278</v>
       </c>
@@ -7504,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:4">
       <c r="B286">
         <v>279</v>
       </c>
@@ -7515,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:4">
       <c r="B287">
         <v>280</v>
       </c>
@@ -7526,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:4">
       <c r="B288">
         <v>281</v>
       </c>
@@ -7537,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:4">
       <c r="B289">
         <v>282</v>
       </c>
@@ -7548,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:4">
       <c r="B290">
         <v>283</v>
       </c>
@@ -7559,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:4">
       <c r="B291">
         <v>284</v>
       </c>
@@ -7570,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:4">
       <c r="B292">
         <v>285</v>
       </c>
@@ -7581,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:4">
       <c r="B293">
         <v>286</v>
       </c>
@@ -7592,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:4">
       <c r="B294">
         <v>287</v>
       </c>
@@ -7603,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:4">
       <c r="B295">
         <v>288</v>
       </c>
@@ -7614,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:4">
       <c r="B296">
         <v>289</v>
       </c>
@@ -7625,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:4">
       <c r="B297">
         <v>290</v>
       </c>
@@ -7636,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:4">
       <c r="B298">
         <v>291</v>
       </c>
@@ -7647,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:4">
       <c r="B299">
         <v>292</v>
       </c>
@@ -7658,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:4">
       <c r="B300">
         <v>293</v>
       </c>
@@ -7669,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:4">
       <c r="B301">
         <v>294</v>
       </c>
@@ -7680,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:4">
       <c r="B302">
         <v>295</v>
       </c>
@@ -7691,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:4">
       <c r="B303">
         <v>296</v>
       </c>
@@ -7702,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:4">
       <c r="B304">
         <v>297</v>
       </c>
@@ -7713,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:4">
       <c r="B305">
         <v>298</v>
       </c>
@@ -7724,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:4">
       <c r="B306">
         <v>299</v>
       </c>
@@ -7735,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:4">
       <c r="B307">
         <v>300</v>
       </c>
@@ -7747,21 +8322,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="50.625" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
@@ -7769,37 +8345,37 @@
     <col min="5" max="5" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -7810,29 +8386,29 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -7847,22 +8423,22 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="18"/>
       <c r="B8" s="18">
         <v>1</v>
@@ -7874,7 +8450,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="18"/>
       <c r="B9" s="18">
         <v>2</v>
@@ -7887,7 +8463,7 @@
       </c>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10">
         <v>3</v>
@@ -7900,7 +8476,7 @@
       </c>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="18">
         <v>4</v>
@@ -7913,7 +8489,7 @@
       </c>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>5</v>
       </c>
@@ -7924,7 +8500,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4">
       <c r="B13" s="18">
         <v>6</v>
       </c>
@@ -7935,7 +8511,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>7</v>
       </c>
@@ -7946,7 +8522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4">
       <c r="B15" s="18">
         <v>8</v>
       </c>
@@ -7957,7 +8533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4">
       <c r="B16">
         <v>9</v>
       </c>
@@ -7968,7 +8544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4">
       <c r="B17" s="18">
         <v>10</v>
       </c>
@@ -7979,7 +8555,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>11</v>
       </c>
@@ -7990,7 +8566,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4">
       <c r="B19" s="18">
         <v>12</v>
       </c>
@@ -8001,7 +8577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>13</v>
       </c>
@@ -8012,7 +8588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4">
       <c r="B21" s="18">
         <v>14</v>
       </c>
@@ -8023,7 +8599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4">
       <c r="B22">
         <v>15</v>
       </c>
@@ -8034,7 +8610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4">
       <c r="B23" s="18">
         <v>16</v>
       </c>
@@ -8047,20 +8623,23 @@
     </row>
   </sheetData>
   <sortState ref="A2:B23">
-    <sortCondition descending="1" ref="B8"/>
+    <sortCondition ref="B8" descending="1"/>
   </sortState>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="42.625" customWidth="1"/>
     <col min="3" max="3" width="26.625" customWidth="1"/>
@@ -8068,37 +8647,37 @@
     <col min="5" max="5" width="73.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8109,29 +8688,29 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -8146,22 +8725,22 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4">
       <c r="B8" s="17">
         <v>1</v>
       </c>
@@ -8172,7 +8751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4">
       <c r="B9" s="17">
         <v>2</v>
       </c>
@@ -8183,7 +8762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4">
       <c r="B10" s="17">
         <v>3</v>
       </c>
@@ -8194,7 +8773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4">
       <c r="B11" s="17">
         <v>4</v>
       </c>
@@ -8205,7 +8784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4">
       <c r="B12" s="17">
         <v>5</v>
       </c>
@@ -8216,7 +8795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4">
       <c r="B13" s="17">
         <v>6</v>
       </c>
@@ -8227,7 +8806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4">
       <c r="B14" s="17">
         <v>7</v>
       </c>
@@ -8238,7 +8817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4">
       <c r="B15" s="17">
         <v>8</v>
       </c>
@@ -8250,8 +8829,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>